--- a/Assets/Dialogues/Sentences_Noharnaak.xlsx
+++ b/Assets/Dialogues/Sentences_Noharnaak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapha\Documents\GitHub\ProjectNarra3D\Assets\Dialogues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81E494E-E76A-4439-8C62-D43C7444093F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07949A95-83B8-40F8-A193-5C6BAAC573A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>KEY</t>
   </si>
@@ -80,10 +80,19 @@
     <t>Hola ! Qual es la keketa de hoy</t>
   </si>
   <si>
-    <t>Prenez le temps d'y penser</t>
-  </si>
-  <si>
-    <t>NOM#_P#_JSP</t>
+    <t xml:space="preserve">Bienvenu dans la maison du seigneur mon enfant.  Quelle est la raison de votre présence ici ? </t>
+  </si>
+  <si>
+    <t>NOHA01_P0_INTRO</t>
+  </si>
+  <si>
+    <t>NOHA01_P1_CHOIX1</t>
+  </si>
+  <si>
+    <t>NOHA01_P1_CHOIX2</t>
+  </si>
+  <si>
+    <t>NOHA01_P1_CHOIX3</t>
   </si>
 </sst>
 </file>
@@ -404,19 +413,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="89.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="104.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
@@ -486,6 +495,21 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
